--- a/biology/Histoire de la zoologie et de la botanique/Benjamin_Gaillon/Benjamin_Gaillon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Benjamin_Gaillon/Benjamin_Gaillon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Benjamin Gaillon, né le 2 juin 1782 à Rouen et mort le 4 janvier 1839 à Boulogne-sur-Mer, est un botaniste français spécialiste des plantes marines.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaillon fit connaître de bonne heure son penchant pour les sciences naturelles et son application à l’étude de la botanique à laquelle il s’attacha plus particulièrement.
 Les plantes si nombreuses et si variées qui se rencontrèrent dans les eaux et les rivages de la mer fixèrent surtout l’attention de Gaillon qui en fit le sujet de plusieurs mémoires adressés aux nombreuses sociétés savantes dont il était le correspondant, parmi lesquelles étaient les Sociétés linnéennes de Paris, de Lyon, de Bordeaux, de Normandie, l’Académie de Rouen et la Société d’émulation de Rouen.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aperçu d'histoire naturelle et observations sur les limites qui séparent le règne végétal du règne animal, Boulogne, Le Roy-Mabille, 1833
 Aperçu microscopique et physiologique de la fructification des thalassiophytes symphysistées, Rouen, F. Baudry, 1821
@@ -579,7 +595,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Théodore-Éloi Lebreton, Biographie rouennaise, Rouen, Le Brument, 1865.</t>
         </is>
